--- a/Program/Datos/datos_manuales.xlsx
+++ b/Program/Datos/datos_manuales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhoyosme\Desktop\Proyecto\Program\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43009937-533A-4C0A-9CBE-F028BE22B724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E05D5C-E27D-4781-B035-DCD2361B45DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{CD6D87B3-3E85-4D9D-BFF0-D4E802493E81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{CD6D87B3-3E85-4D9D-BFF0-D4E802493E81}"/>
   </bookViews>
   <sheets>
     <sheet name="info_nodo" sheetId="1" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE85F0-6249-49C0-98C3-75140ABDEF17}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1412,7 +1412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95EF088-4CE0-4E74-9E6F-C215D514AA48}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
